--- a/ONCHO/Breeding Site Survey/Congo/cg_oncho_bsc_2_capture_202010.xlsx
+++ b/ONCHO/Breeding Site Survey/Congo/cg_oncho_bsc_2_capture_202010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Congo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6FEBE-8985-490B-ADC6-DB242ED33DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B14DF0-003B-45BC-87E6-A3A6AF22AC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="160">
   <si>
     <t>form_title</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Code à deux chiffres qui vous a été assigné</t>
   </si>
   <si>
-    <t>Sélectionner un district (UI)</t>
-  </si>
-  <si>
     <t>Informations additionnelles</t>
   </si>
   <si>
@@ -107,15 +104,9 @@
     <t>b_district</t>
   </si>
   <si>
-    <t>b_hour</t>
-  </si>
-  <si>
     <t>b_captor_initial</t>
   </si>
   <si>
-    <t>b_weather</t>
-  </si>
-  <si>
     <t>b_notes</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>Initiales du captureur</t>
   </si>
   <si>
-    <t>Sélectionner le site ID</t>
-  </si>
-  <si>
     <t>7:00 - 8:00</t>
   </si>
   <si>
@@ -194,12 +182,6 @@
     <t>select_one weather_list</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>regex(.,'^[a-zA-Z0-9]{2,5}$')</t>
-  </si>
-  <si>
     <t>La longueur des initiales doit être comprise entre 2 et 5</t>
   </si>
   <si>
@@ -215,12 +197,6 @@
     <t>Observation climatique</t>
   </si>
   <si>
-    <t>cg_oncho_bsc_2_capture_202010</t>
-  </si>
-  <si>
-    <t>2. Fiche de collecte des Simulies par équipe</t>
-  </si>
-  <si>
     <t>b_site</t>
   </si>
   <si>
@@ -242,14 +218,317 @@
     <t>Nombre de simulies capturées</t>
   </si>
   <si>
-    <t>b_nb_blackflies</t>
+    <t>select_one region_list</t>
+  </si>
+  <si>
+    <t>Sélectionner un département</t>
+  </si>
+  <si>
+    <t>select_one district_list</t>
+  </si>
+  <si>
+    <t>Sélectionner un district</t>
+  </si>
+  <si>
+    <t>region_list</t>
+  </si>
+  <si>
+    <t>Bouenza</t>
+  </si>
+  <si>
+    <t>Niari</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>district_list</t>
+  </si>
+  <si>
+    <t>Boko</t>
+  </si>
+  <si>
+    <t>Dolisie</t>
+  </si>
+  <si>
+    <t>Goma Tse-Tse</t>
+  </si>
+  <si>
+    <t>Igne-Ngabe-Mayama</t>
+  </si>
+  <si>
+    <t>Kibangou</t>
+  </si>
+  <si>
+    <t>Kimongo</t>
+  </si>
+  <si>
+    <t>Kindamba</t>
+  </si>
+  <si>
+    <t>Kinkala</t>
+  </si>
+  <si>
+    <t>Kintele</t>
+  </si>
+  <si>
+    <t>Loudima</t>
+  </si>
+  <si>
+    <t>Loutete</t>
+  </si>
+  <si>
+    <t>Madingou</t>
+  </si>
+  <si>
+    <t>Mayoko</t>
+  </si>
+  <si>
+    <t>Mindouli</t>
+  </si>
+  <si>
+    <t>Mossendjo</t>
+  </si>
+  <si>
+    <t>Mouyondzi</t>
+  </si>
+  <si>
+    <t>Nkayi</t>
+  </si>
+  <si>
+    <t>b_province</t>
+  </si>
+  <si>
+    <t>site (village)</t>
+  </si>
+  <si>
+    <t>Bassin de capture</t>
+  </si>
+  <si>
+    <t>b_river_basin_name</t>
+  </si>
+  <si>
+    <t>b_nom_captureurs</t>
+  </si>
+  <si>
+    <t>b_date_capture</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date de capture</t>
+  </si>
+  <si>
+    <t>b_nb_interval</t>
+  </si>
+  <si>
+    <t>Entrer le nombre total d'interval de capture</t>
+  </si>
+  <si>
+    <t>. &gt; 0 and . &lt;= 7</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>Une intervalle correspond à une heure. Si la capture a durée trois heures, il y aura trois intervales.</t>
+  </si>
+  <si>
+    <t>Le nombre d'intervalles doit être entre 1 et 7</t>
+  </si>
+  <si>
+    <t>Premier Intervalle</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>b_hour1</t>
+  </si>
+  <si>
+    <t>b_nb_blackflies1</t>
+  </si>
+  <si>
+    <t>b_weather1</t>
+  </si>
+  <si>
+    <t>${b_nb_interval} &gt;= 2</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>b_hour2</t>
+  </si>
+  <si>
+    <t>b_nb_blackflies2</t>
+  </si>
+  <si>
+    <t>b_weather2</t>
+  </si>
+  <si>
+    <t>Deuxième Intervalle</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>b_hour3</t>
+  </si>
+  <si>
+    <t>b_nb_blackflies3</t>
+  </si>
+  <si>
+    <t>b_weather3</t>
+  </si>
+  <si>
+    <t>${b_nb_interval} &gt;= 3</t>
+  </si>
+  <si>
+    <t>Troisième Intervalle</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>b_hour4</t>
+  </si>
+  <si>
+    <t>b_nb_blackflies4</t>
+  </si>
+  <si>
+    <t>b_weather4</t>
+  </si>
+  <si>
+    <t>Quatrième Intervalle</t>
+  </si>
+  <si>
+    <t>${b_nb_interval} &gt;= 4</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>b_hour5</t>
+  </si>
+  <si>
+    <t>b_nb_blackflies5</t>
+  </si>
+  <si>
+    <t>b_weather5</t>
+  </si>
+  <si>
+    <t>${b_nb_interval} &gt;= 5</t>
+  </si>
+  <si>
+    <t>Cinquième Intervalle</t>
+  </si>
+  <si>
+    <t>g6</t>
+  </si>
+  <si>
+    <t>b_hour6</t>
+  </si>
+  <si>
+    <t>b_nb_blackflies6</t>
+  </si>
+  <si>
+    <t>b_weather6</t>
+  </si>
+  <si>
+    <t>Sixième Intervalle</t>
+  </si>
+  <si>
+    <t>${b_nb_interval} &gt;= 6</t>
+  </si>
+  <si>
+    <t>g7</t>
+  </si>
+  <si>
+    <t>b_hour7</t>
+  </si>
+  <si>
+    <t>b_nb_blackflies7</t>
+  </si>
+  <si>
+    <t>b_weather7</t>
+  </si>
+  <si>
+    <t>${b_nb_interval} &gt;= 7</t>
+  </si>
+  <si>
+    <t>Septième Intervalle</t>
+  </si>
+  <si>
+    <t>region_list=${b_province}</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>b_gps</t>
+  </si>
+  <si>
+    <t>Collectez les données GPS</t>
+  </si>
+  <si>
+    <t>Fonctionne mieux à l'extérieur des bâtiments</t>
+  </si>
+  <si>
+    <t>cg_oncho_bsc_2_capture_202010_v2</t>
+  </si>
+  <si>
+    <t>2. Fiche de collecte des Simulies par équipe V2</t>
+  </si>
+  <si>
+    <t>Nom des captureurs</t>
+  </si>
+  <si>
+    <t>b_total_blackflies</t>
+  </si>
+  <si>
+    <t>Total des mouches capturées</t>
+  </si>
+  <si>
+    <t>body::accuracyThreshold</t>
+  </si>
+  <si>
+    <t>readonly</t>
+  </si>
+  <si>
+    <t>if(${b_nb_interval} = 1, ${b_nb_blackflies1},
+  if(${b_nb_interval} = 2, ${b_nb_blackflies1} + ${b_nb_blackflies2}, 
+    if(${b_nb_interval} = 3, ${b_nb_blackflies1} + ${b_nb_blackflies2} + ${b_nb_blackflies3},
+      if(${b_nb_interval} = 4, ${b_nb_blackflies1} + ${b_nb_blackflies2} + ${b_nb_blackflies3} + ${b_nb_blackflies4},
+        if(${b_nb_interval} = 5, ${b_nb_blackflies1} + ${b_nb_blackflies2} + ${b_nb_blackflies3} + ${b_nb_blackflies4} + ${b_nb_blackflies5},
+          if(${b_nb_interval} = 6, ${b_nb_blackflies1} + ${b_nb_blackflies2} + ${b_nb_blackflies3} + ${b_nb_blackflies4} + ${b_nb_blackflies5} + ${b_nb_blackflies6},
+            if(${b_nb_interval} = 7, ${b_nb_blackflies1} + ${b_nb_blackflies2} + ${b_nb_blackflies3} + ${b_nb_blackflies4} + ${b_nb_blackflies5} + ${b_nb_blackflies6} + ${b_nb_blackflies7}, 0)
+          )
+        )
+      )
+    )
+  )
+)</t>
+  </si>
+  <si>
+    <t>regex(.,'^[a-zA-Z]{2,5}$')</t>
+  </si>
+  <si>
+    <t>minimal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,8 +589,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +606,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,16 +645,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,6 +702,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -424,9 +731,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFFF"/>
-      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -703,13 +1010,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -728,314 +1035,1286 @@
     <col min="12" max="12" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="M1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="9" t="s">
+      <c r="C4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+    </row>
+    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+    </row>
+    <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="N56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="D57" s="16"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1045,11 +2324,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1059,158 +2338,432 @@
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1253,16 +2806,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="C2">
-        <v>20201023</v>
+        <v>20201027</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
